--- a/Splunk Basic - 2 days.xlsx
+++ b/Splunk Basic - 2 days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_16_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AECDAF-7382-4490-A88D-075ED101E53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51FDFE-084C-412F-BC43-DB9F5F750F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,31 +190,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Scheduling Reports &amp; Alerts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Creating and managing Scheduled Reports 
-Creating and managing Alerts 
-Using Alert Actions 
-dashboards </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Intro to Splunk
 </t>
     </r>
@@ -235,12 +210,52 @@
 Identifying types of knowledge objects   </t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scheduling Reports &amp; Alerts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Creating and managing Scheduled Reports 
+Creating and managing Alerts 
+Using Alert Actions 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dashboards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,13 +303,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -326,7 +352,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -340,6 +366,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -352,7 +381,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -693,44 +722,44 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -743,29 +772,29 @@
     </row>
     <row r="7" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
